--- a/northwind_db/northwind_stats.xlsx
+++ b/northwind_db/northwind_stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zlatan Angelov\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sql_queries\northwind_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A877BF56-1A1A-4A16-9EBE-18EBD0E71390}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80CA5CF1-4F64-4D0B-A45F-101E6901E9E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="25760" windowHeight="13960" activeTab="5"/>
+    <workbookView xWindow="-28920" yWindow="5115" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="perc_to_date" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="ma graph" sheetId="4" r:id="rId3"/>
     <sheet name="share orders-country-month" sheetId="5" r:id="rId4"/>
     <sheet name="share_per_country pivoted" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet8" sheetId="9" r:id="rId6"/>
-    <sheet name="share orders-country-year" sheetId="8" r:id="rId7"/>
+    <sheet name="share orders-country-year" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3176" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3160" uniqueCount="635">
   <si>
     <t>month</t>
   </si>
@@ -10997,17 +10997,45 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -11027,7 +11055,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:schemeClr val="dk1">
                       <a:lumMod val="75000"/>
                       <a:lumOff val="25000"/>
                     </a:schemeClr>
@@ -11040,6 +11068,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -11052,18 +11081,46 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="1"/>
+        <c:idx val="2"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -11083,7 +11140,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:schemeClr val="dk1">
                       <a:lumMod val="75000"/>
                       <a:lumOff val="25000"/>
                     </a:schemeClr>
@@ -11096,6 +11153,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -11108,18 +11166,76 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="2"/>
+        <c:idx val="4"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -11139,7 +11255,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:schemeClr val="dk1">
                       <a:lumMod val="75000"/>
                       <a:lumOff val="25000"/>
                     </a:schemeClr>
@@ -11152,6 +11268,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -11164,18 +11281,33 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="3"/>
+        <c:idx val="8"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -11195,7 +11327,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:schemeClr val="dk1">
                       <a:lumMod val="75000"/>
                       <a:lumOff val="25000"/>
                     </a:schemeClr>
@@ -11208,6 +11340,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -11220,18 +11353,183 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="4"/>
+        <c:idx val="9"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -11251,7 +11549,7 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:schemeClr val="dk1">
                       <a:lumMod val="75000"/>
                       <a:lumOff val="25000"/>
                     </a:schemeClr>
@@ -11264,846 +11562,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="9"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="10"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="11"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="12"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="13"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="14"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="15"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="16"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="17"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="18"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="19"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -12117,49 +11576,8 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="20"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -12173,8 +11591,19 @@
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9077739249535952E-2"/>
+          <c:y val="7.8702347080564505E-2"/>
+          <c:w val="0.82584152187588122"/>
+          <c:h val="0.7795092210112391"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -12186,23 +11615,21 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Argentina</c:v>
+                  <c:v>Austria</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'share_per_country pivoted'!$A$5:$A$28</c:f>
@@ -12286,40 +11713,69 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>12.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.22</c:v>
+                </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.52</c:v>
+                  <c:v>14.89</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1499999999999999</c:v>
+                  <c:v>4.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.43</c:v>
+                  <c:v>16.260000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2</c:v>
+                  <c:v>7.77</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.29</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.06</c:v>
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.3899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.02</c:v>
+                  <c:v>18.84</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5</c:v>
+                  <c:v>8.92</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.87</c:v>
+                  <c:v>6.42</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.48</c:v>
+                  <c:v>5.93</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.31</c:v>
+                  <c:v>15.17</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-948A-47FB-83F2-5DED55310229}"/>
@@ -12335,23 +11791,21 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Austria</c:v>
+                  <c:v>Brazil</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'share_per_country pivoted'!$A$5:$A$28</c:f>
@@ -12436,69 +11890,74 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>12.52</c:v>
+                  <c:v>14.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.39</c:v>
+                  <c:v>1.79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.22</c:v>
+                  <c:v>22.64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.89</c:v>
+                  <c:v>9.76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.66</c:v>
+                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1399999999999999</c:v>
+                  <c:v>6.69</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.260000000000002</c:v>
+                  <c:v>3.07</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.77</c:v>
+                  <c:v>3.62</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.51</c:v>
+                  <c:v>3.51</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.67</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.65</c:v>
+                  <c:v>19.07</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.29</c:v>
+                  <c:v>4.22</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.15</c:v>
+                  <c:v>8.57</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.3899999999999997</c:v>
+                  <c:v>6.42</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.84</c:v>
+                  <c:v>7.93</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.92</c:v>
+                  <c:v>8.0399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.42</c:v>
+                  <c:v>9.67</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.93</c:v>
+                  <c:v>19.420000000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>15.17</c:v>
+                  <c:v>4.24</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>28.46</c:v>
+                  <c:v>11.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-948A-47FB-83F2-5DED55310229}"/>
@@ -12514,23 +11973,21 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Belgium</c:v>
+                  <c:v>France</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'share_per_country pivoted'!$A$5:$A$28</c:f>
@@ -12615,42 +12072,77 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>12.91</c:v>
+                  <c:v>8.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.27</c:v>
+                  <c:v>6.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.11</c:v>
+                  <c:v>16.239999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.76</c:v>
+                  <c:v>7.91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.94</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.76</c:v>
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.42</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.03</c:v>
+                  <c:v>11.61</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.41</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.12</c:v>
+                  <c:v>10.32</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.04</c:v>
+                  <c:v>6.15</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.07</c:v>
+                  <c:v>3.89</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.39</c:v>
+                  <c:v>7.65</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.25</c:v>
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-948A-47FB-83F2-5DED55310229}"/>
@@ -12666,23 +12158,23 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Brazil</c:v>
+                  <c:v>Germany</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'share_per_country pivoted'!$A$5:$A$28</c:f>
@@ -12767,75 +12259,77 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>14.22</c:v>
+                  <c:v>24.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.760000000000002</c:v>
+                  <c:v>37.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.32</c:v>
+                  <c:v>9.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.79</c:v>
+                  <c:v>15.11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.64</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.76</c:v>
+                  <c:v>4.91</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.38</c:v>
+                  <c:v>17.39</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.69</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.07</c:v>
+                  <c:v>31.12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.62</c:v>
+                  <c:v>36.81</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.51</c:v>
+                  <c:v>15.72</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.08</c:v>
+                  <c:v>14.03</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.07</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.22</c:v>
+                  <c:v>21.69</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.57</c:v>
+                  <c:v>32.909999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.42</c:v>
+                  <c:v>10.41</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.93</c:v>
+                  <c:v>18.63</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.0399999999999991</c:v>
+                  <c:v>22.08</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.67</c:v>
+                  <c:v>23.94</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19.420000000000002</c:v>
+                  <c:v>9.82</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.24</c:v>
+                  <c:v>16.920000000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11.06</c:v>
+                  <c:v>9.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-948A-47FB-83F2-5DED55310229}"/>
@@ -12851,23 +12345,23 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Canada</c:v>
+                  <c:v>USA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'share_per_country pivoted'!$A$5:$A$28</c:f>
@@ -12951,2734 +12445,86 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.840000000000003</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.7</c:v>
+                  <c:v>28.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.93</c:v>
+                  <c:v>19.73</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.99</c:v>
+                  <c:v>7.27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8</c:v>
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.83</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.41</c:v>
+                  <c:v>11.49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.5399999999999991</c:v>
+                  <c:v>18.48</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.210000000000001</c:v>
+                  <c:v>49.45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.49</c:v>
+                  <c:v>5.45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.59</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.96</c:v>
+                  <c:v>28.69</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.16</c:v>
+                  <c:v>21.18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.92</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2</c:v>
+                  <c:v>27.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.57</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.23</c:v>
+                  <c:v>11.31</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.19</c:v>
+                  <c:v>24.37</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-948A-47FB-83F2-5DED55310229}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$G$3:$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Denmark</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$A$5:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1996-07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1996-08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1996-09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996-10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1996-11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1996-12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1997-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1997-03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1997-04</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1997-05</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997-06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1997-07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1997-08</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1997-09</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1997-10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1997-11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1997-12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1998-01</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1998-02</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1998-03</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1998-04</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1998-05</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'share_per_country pivoted'!$G$5:$G$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="3">
-                  <c:v>0.94</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.83</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18.260000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.53</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.69</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.47</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.74</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.69</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.48</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.19</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.27</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-948A-47FB-83F2-5DED55310229}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$H$3:$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Finland</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$A$5:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1996-07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1996-08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1996-09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996-10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1996-11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1996-12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1997-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1997-03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1997-04</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1997-05</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997-06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1997-07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1997-08</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1997-09</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1997-10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1997-11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1997-12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1998-01</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1998-02</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1998-03</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1998-04</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1998-05</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'share_per_country pivoted'!$H$5:$H$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.71</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.72</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.33</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.65</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.37</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.69</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-948A-47FB-83F2-5DED55310229}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$I$3:$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>France</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$A$5:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1996-07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1996-08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1996-09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996-10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1996-11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1996-12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1997-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1997-03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1997-04</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1997-05</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997-06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1997-07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1997-08</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1997-09</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1997-10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1997-11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1997-12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1998-01</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1998-02</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1998-03</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1998-04</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1998-05</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'share_per_country pivoted'!$I$5:$I$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>8.15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.86</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.95</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.239999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.91</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.94</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.75</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.91</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11.61</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.42</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.94</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.41</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10.32</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.15</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.89</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.65</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-948A-47FB-83F2-5DED55310229}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$J$3:$J$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Germany</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$A$5:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1996-07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1996-08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1996-09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996-10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1996-11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1996-12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1997-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1997-03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1997-04</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1997-05</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997-06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1997-07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1997-08</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1997-09</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1997-10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1997-11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1997-12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1998-01</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1998-02</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1998-03</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1998-04</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1998-05</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'share_per_country pivoted'!$J$5:$J$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>24.78</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>37.35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.67</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.91</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17.39</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.78</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>31.12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>36.81</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15.72</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14.03</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21.69</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32.909999999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10.41</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.63</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>22.08</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>23.94</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9.82</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>16.920000000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.36</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-948A-47FB-83F2-5DED55310229}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$K$3:$K$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ireland</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$A$5:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1996-07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1996-08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1996-09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996-10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1996-11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1996-12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1997-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1997-03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1997-04</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1997-05</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997-06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1997-07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1997-08</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1997-09</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1997-10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1997-11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1997-12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1998-01</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1998-02</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1998-03</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1998-04</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1998-05</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'share_per_country pivoted'!$K$5:$K$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="2">
-                  <c:v>16.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.43</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.92</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.35</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.35</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.93</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.06</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.93</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.14</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>17.14</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.08</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-948A-47FB-83F2-5DED55310229}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$L$3:$L$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Italy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$A$5:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1996-07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1996-08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1996-09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996-10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1996-11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1996-12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1997-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1997-03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1997-04</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1997-05</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997-06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1997-07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1997-08</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1997-09</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1997-10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1997-11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1997-12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1998-01</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1998-02</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1998-03</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1998-04</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1998-05</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'share_per_country pivoted'!$L$5:$L$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="1">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.99</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.34</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.61</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.34</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.0599999999999996</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.11</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.68</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-948A-47FB-83F2-5DED55310229}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$M$3:$M$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mexico</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$A$5:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1996-07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1996-08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1996-09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996-10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1996-11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1996-12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1997-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1997-03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1997-04</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1997-05</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997-06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1997-07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1997-08</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1997-09</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1997-10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1997-11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1997-12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1998-01</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1998-02</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1998-03</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1998-04</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1998-05</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'share_per_country pivoted'!$M$5:$M$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.9800000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.78</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.61</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.0299999999999994</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.01</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.74</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-948A-47FB-83F2-5DED55310229}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$N$3:$N$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Norway</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$A$5:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1996-07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1996-08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1996-09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996-10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1996-11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1996-12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1997-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1997-03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1997-04</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1997-05</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997-06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1997-07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1997-08</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1997-09</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1997-10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1997-11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1997-12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1998-01</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1998-02</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1998-03</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1998-04</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1998-05</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'share_per_country pivoted'!$N$5:$N$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="5">
-                  <c:v>2.34</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.06</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.85</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-948A-47FB-83F2-5DED55310229}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$O$3:$O$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Poland</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$A$5:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1996-07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1996-08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1996-09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996-10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1996-11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1996-12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1997-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1997-03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1997-04</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1997-05</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997-06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1997-07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1997-08</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1997-09</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1997-10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1997-11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1997-12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1998-01</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1998-02</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1998-03</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1998-04</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1998-05</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'share_per_country pivoted'!$O$5:$O$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="5">
-                  <c:v>1.01</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.58</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.59</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.03</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-948A-47FB-83F2-5DED55310229}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$P$3:$P$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Portugal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$A$5:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1996-07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1996-08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1996-09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996-10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1996-11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1996-12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1997-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1997-03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1997-04</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1997-05</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997-06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1997-07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1997-08</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1997-09</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1997-10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1997-11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1997-12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1998-01</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1998-02</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1998-03</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1998-04</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1998-05</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'share_per_country pivoted'!$P$5:$P$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="3">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.58</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.3199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-948A-47FB-83F2-5DED55310229}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$Q$3:$Q$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Spain</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$A$5:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1996-07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1996-08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1996-09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996-10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1996-11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1996-12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1997-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1997-03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1997-04</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1997-05</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997-06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1997-07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1997-08</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1997-09</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1997-10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1997-11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1997-12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1998-01</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1998-02</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1998-03</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1998-04</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1998-05</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'share_per_country pivoted'!$Q$5:$Q$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="1">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.27</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.87</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.24</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.92</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.95</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.84</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-948A-47FB-83F2-5DED55310229}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="16"/>
-          <c:order val="16"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$R$3:$R$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sweden</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$A$5:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1996-07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1996-08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1996-09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996-10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1996-11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1996-12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1997-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1997-03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1997-04</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1997-05</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997-06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1997-07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1997-08</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1997-09</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1997-10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1997-11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1997-12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1998-01</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1998-02</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1998-03</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1998-04</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1998-05</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'share_per_country pivoted'!$R$5:$R$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.82</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.43</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.07</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.95</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.18</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.94</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.5199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.35</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.43</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.57</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.1900000000000004</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.1900000000000004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.85</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-948A-47FB-83F2-5DED55310229}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="17"/>
-          <c:order val="17"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$S$3:$S$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Switzerland</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$A$5:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1996-07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1996-08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1996-09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996-10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1996-11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1996-12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1997-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1997-03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1997-04</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1997-05</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997-06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1997-07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1997-08</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1997-09</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1997-10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1997-11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1997-12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1998-01</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1998-02</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1998-03</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1998-04</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1998-05</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'share_per_country pivoted'!$S$5:$S$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>10.94</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.4700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.42</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.3600000000000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.39</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.39</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.18</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.08</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.72</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-948A-47FB-83F2-5DED55310229}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="18"/>
-          <c:order val="18"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$T$3:$T$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>UK</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$A$5:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1996-07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1996-08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1996-09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996-10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1996-11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1996-12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1997-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1997-03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1997-04</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1997-05</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997-06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1997-07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1997-08</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1997-09</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1997-10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1997-11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1997-12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1998-01</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1998-02</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1998-03</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1998-04</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1998-05</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'share_per_country pivoted'!$T$5:$T$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="1">
-                  <c:v>1.88</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.96</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.61</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.28</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.46</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.82</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.2100000000000009</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.86</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.92</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9.02</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.92</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-948A-47FB-83F2-5DED55310229}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="19"/>
-          <c:order val="19"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$U$3:$U$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>USA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$A$5:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1996-07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1996-08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1996-09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996-10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1996-11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1996-12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1997-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1997-03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1997-04</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1997-05</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997-06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1997-07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1997-08</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1997-09</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1997-10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1997-11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1997-12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1998-01</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1998-02</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1998-03</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1998-04</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1998-05</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'share_per_country pivoted'!$U$5:$U$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.31</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36.840000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28.76</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19.73</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.27</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>31.83</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.49</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18.48</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>49.45</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.45</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28.59</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>28.69</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21.18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.92</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27.19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>18.57</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11.31</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>24.37</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>35.54</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-948A-47FB-83F2-5DED55310229}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="20"/>
-          <c:order val="20"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$V$3:$V$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Venezuela</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'share_per_country pivoted'!$A$5:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>1996-07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1996-08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1996-09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1996-10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1996-11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1996-12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1997-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997-02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1997-03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1997-04</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1997-05</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1997-06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1997-07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1997-08</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1997-09</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1997-10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1997-11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1997-12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1998-01</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1998-02</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1998-03</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1998-04</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1998-05</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'share_per_country pivoted'!$V$5:$V$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
-                  <c:v>7.97</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.55</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.98</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.56</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.9400000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.079999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.43</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.77</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.83</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.51</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.46</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.61</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.68</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-948A-47FB-83F2-5DED55310229}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -15686,10 +12532,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
         <c:axId val="600565944"/>
         <c:axId val="600562744"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="600565944"/>
         <c:scaling>
@@ -15697,6 +12544,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -15705,7 +12566,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -15719,9 +12580,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -15752,7 +12613,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -15768,8 +12629,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -15780,7 +12647,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -15798,7 +12665,17 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -15822,7 +12699,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -15849,11 +12726,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -16947,13 +13824,10 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -18059,25 +14933,25 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="303">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -18085,7 +14959,30 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -18094,36 +14991,13 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
@@ -18160,12 +15034,12 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -18175,12 +15049,12 @@
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -18192,13 +15066,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -18210,33 +15084,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="15875">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -18252,16 +15127,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -18269,7 +15143,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -18281,17 +15155,18 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -18300,12 +15175,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -18319,14 +15194,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -18338,13 +15213,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
@@ -18352,12 +15234,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -18371,12 +15253,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -18390,14 +15272,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -18409,12 +15291,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -18428,39 +15310,68 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:plotArea3D>
   <cs:seriesAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -18468,12 +15379,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -18486,13 +15397,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -18501,14 +15412,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -18517,7 +15427,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -18535,13 +15445,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -18550,11 +15461,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -18562,13 +15484,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
@@ -19154,15 +16083,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>130175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -31853,7 +28782,7 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:W28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A3:G28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
       <items count="24">
@@ -31885,27 +28814,27 @@
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
       <items count="22">
-        <item x="20"/>
+        <item h="1" x="20"/>
         <item x="0"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item x="2"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="3"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="3"/>
         <item x="4"/>
         <item x="5"/>
-        <item x="14"/>
-        <item x="11"/>
-        <item x="6"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="17"/>
-        <item x="12"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="11"/>
+        <item h="1" x="6"/>
+        <item h="1" x="18"/>
+        <item h="1" x="19"/>
+        <item h="1" x="17"/>
+        <item h="1" x="12"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="13"/>
         <item x="9"/>
-        <item x="10"/>
+        <item h="1" x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -31993,27 +28922,12 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="22">
-    <i>
-      <x/>
-    </i>
+  <colItems count="6">
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
-    </i>
-    <i>
       <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
     </i>
     <i>
       <x v="7"/>
@@ -32022,40 +28936,7 @@
       <x v="8"/>
     </i>
     <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
       <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
     </i>
     <i t="grand">
       <x/>
@@ -70933,21 +67814,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:W28"/>
+  <dimension ref="A3:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -70965,7 +67845,7 @@
     <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>625</v>
       </c>
@@ -70973,1457 +67853,571 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="C4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F4" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="G4" t="s">
-        <v>621</v>
-      </c>
-      <c r="H4" t="s">
-        <v>612</v>
-      </c>
-      <c r="I4" t="s">
-        <v>604</v>
-      </c>
-      <c r="J4" t="s">
-        <v>605</v>
-      </c>
-      <c r="K4" t="s">
-        <v>618</v>
-      </c>
-      <c r="L4" t="s">
-        <v>615</v>
-      </c>
-      <c r="M4" t="s">
-        <v>610</v>
-      </c>
-      <c r="N4" t="s">
-        <v>623</v>
-      </c>
-      <c r="O4" t="s">
-        <v>622</v>
-      </c>
-      <c r="P4" t="s">
-        <v>620</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>616</v>
-      </c>
-      <c r="R4" t="s">
-        <v>613</v>
-      </c>
-      <c r="S4" t="s">
-        <v>608</v>
-      </c>
-      <c r="T4" t="s">
-        <v>617</v>
-      </c>
-      <c r="U4" t="s">
-        <v>614</v>
-      </c>
-      <c r="V4" t="s">
-        <v>611</v>
-      </c>
-      <c r="W4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4">
+        <v>12.52</v>
+      </c>
       <c r="C5" s="4">
-        <v>12.52</v>
+        <v>14.22</v>
       </c>
       <c r="D5" s="4">
-        <v>12.91</v>
+        <v>8.15</v>
       </c>
       <c r="E5" s="4">
-        <v>14.22</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4">
-        <v>1.24</v>
-      </c>
-      <c r="I5" s="4">
-        <v>8.15</v>
-      </c>
-      <c r="J5" s="4">
         <v>24.78</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="S5" s="4">
-        <v>10.94</v>
-      </c>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4">
+      <c r="F5" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="V5" s="4">
-        <v>7.97</v>
-      </c>
-      <c r="W5" s="4">
-        <v>99.99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G5" s="4">
+        <v>64.070000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>627</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="4">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2.11</v>
+      </c>
       <c r="E6" s="4">
-        <v>18.760000000000002</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
-        <v>5.4</v>
-      </c>
-      <c r="I6" s="4">
-        <v>2.11</v>
-      </c>
-      <c r="J6" s="4">
         <v>37.35</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4">
-        <v>1.46</v>
-      </c>
-      <c r="M6" s="4">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="R6" s="4">
-        <v>8.25</v>
-      </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4">
-        <v>1.88</v>
-      </c>
-      <c r="U6" s="4">
+      <c r="F6" s="4">
         <v>13.31</v>
       </c>
-      <c r="V6" s="4">
-        <v>5.55</v>
-      </c>
-      <c r="W6" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G6" s="4">
+        <v>71.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>628</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4">
+        <v>1.32</v>
+      </c>
       <c r="D7" s="4">
-        <v>10.27</v>
+        <v>6.86</v>
       </c>
       <c r="E7" s="4">
-        <v>1.32</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4">
-        <v>6.86</v>
-      </c>
-      <c r="J7" s="4">
         <v>9.67</v>
       </c>
-      <c r="K7" s="4">
-        <v>16.7</v>
-      </c>
-      <c r="L7" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="M7" s="4">
-        <v>3.95</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4">
-        <v>6.13</v>
-      </c>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4">
-        <v>1.96</v>
-      </c>
-      <c r="U7" s="4">
+      <c r="F7" s="4">
         <v>36.840000000000003</v>
       </c>
-      <c r="V7" s="4">
-        <v>3.98</v>
-      </c>
-      <c r="W7" s="4">
-        <v>99.98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G7" s="4">
+        <v>54.690000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>629</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="4">
+        <v>7.12</v>
+      </c>
+      <c r="E8" s="4">
+        <v>20.13</v>
+      </c>
       <c r="F8" s="4">
-        <v>13.7</v>
+        <v>28.76</v>
       </c>
       <c r="G8" s="4">
-        <v>0.94</v>
-      </c>
-      <c r="H8" s="4">
-        <v>3.71</v>
-      </c>
-      <c r="I8" s="4">
-        <v>7.12</v>
-      </c>
-      <c r="J8" s="4">
-        <v>20.13</v>
-      </c>
-      <c r="K8" s="4">
-        <v>5.43</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4">
-        <v>3.47</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4">
-        <v>3.87</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>2.62</v>
-      </c>
-      <c r="R8" s="4">
-        <v>4.82</v>
-      </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4">
-        <v>1.02</v>
-      </c>
-      <c r="U8" s="4">
-        <v>28.76</v>
-      </c>
-      <c r="V8" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="W8" s="4">
-        <v>99.99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+        <v>56.010000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="4">
+        <v>34.39</v>
+      </c>
       <c r="C9" s="4">
-        <v>34.39</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>1.79</v>
+      </c>
+      <c r="D9" s="4">
+        <v>21.95</v>
+      </c>
       <c r="E9" s="4">
-        <v>1.79</v>
-      </c>
-      <c r="F9" s="4"/>
+        <v>15.11</v>
+      </c>
+      <c r="F9" s="4">
+        <v>8.9</v>
+      </c>
       <c r="G9" s="4">
-        <v>1.83</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4">
-        <v>21.95</v>
-      </c>
-      <c r="J9" s="4">
-        <v>15.11</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4">
-        <v>2.13</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4">
-        <v>10.75</v>
-      </c>
-      <c r="U9" s="4">
-        <v>8.9</v>
-      </c>
-      <c r="V9" s="4">
-        <v>2.56</v>
-      </c>
-      <c r="W9" s="4">
-        <v>100.00999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+        <v>82.14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="4">
+        <v>14.22</v>
+      </c>
       <c r="C10" s="4">
-        <v>14.22</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>22.64</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.16</v>
+      </c>
       <c r="E10" s="4">
-        <v>22.64</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F10" s="4">
-        <v>4.93</v>
+        <v>19.73</v>
       </c>
       <c r="G10" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4">
-        <v>0.16</v>
-      </c>
-      <c r="J10" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="K10" s="4">
-        <v>5.92</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4">
-        <v>2.34</v>
-      </c>
-      <c r="O10" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="P10" s="4">
-        <v>1.58</v>
-      </c>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4">
-        <v>5.14</v>
-      </c>
-      <c r="S10" s="4">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="T10" s="4">
-        <v>6.61</v>
-      </c>
-      <c r="U10" s="4">
-        <v>19.73</v>
-      </c>
-      <c r="V10" s="4">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="W10" s="4">
-        <v>99.989999999999981</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+        <v>61.149999999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>531</v>
       </c>
       <c r="B11" s="4">
-        <v>0.52</v>
+        <v>14.89</v>
       </c>
       <c r="C11" s="4">
-        <v>14.89</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>9.76</v>
+      </c>
+      <c r="D11" s="4">
+        <v>6.7</v>
+      </c>
       <c r="E11" s="4">
-        <v>9.76</v>
+        <v>4.91</v>
       </c>
       <c r="F11" s="4">
-        <v>20.99</v>
+        <v>7.27</v>
       </c>
       <c r="G11" s="4">
-        <v>18.260000000000002</v>
-      </c>
-      <c r="H11" s="4">
-        <v>1.72</v>
-      </c>
-      <c r="I11" s="4">
-        <v>6.7</v>
-      </c>
-      <c r="J11" s="4">
-        <v>4.91</v>
-      </c>
-      <c r="K11" s="4">
-        <v>2.35</v>
-      </c>
-      <c r="L11" s="4">
-        <v>2.99</v>
-      </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4">
-        <v>3.42</v>
-      </c>
-      <c r="T11" s="4">
-        <v>5</v>
-      </c>
-      <c r="U11" s="4">
-        <v>7.27</v>
-      </c>
-      <c r="V11" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="W11" s="4">
-        <v>99.97999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+        <v>43.53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>532</v>
       </c>
       <c r="B12" s="4">
-        <v>1.1499999999999999</v>
+        <v>4.66</v>
       </c>
       <c r="C12" s="4">
-        <v>4.66</v>
+        <v>2.38</v>
       </c>
       <c r="D12" s="4">
-        <v>10.11</v>
+        <v>16.239999999999998</v>
       </c>
       <c r="E12" s="4">
-        <v>2.38</v>
+        <v>17.39</v>
       </c>
       <c r="F12" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4">
-        <v>8</v>
-      </c>
-      <c r="I12" s="4">
-        <v>16.239999999999998</v>
-      </c>
-      <c r="J12" s="4">
-        <v>17.39</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4">
-        <v>1.34</v>
-      </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4">
-        <v>2.21</v>
-      </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4">
-        <v>4.43</v>
-      </c>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="U12" s="4">
         <v>22.6</v>
       </c>
-      <c r="V12" s="4">
-        <v>4</v>
-      </c>
-      <c r="W12" s="4">
-        <v>100.01000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G12" s="4">
+        <v>63.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4">
+        <v>1.1399999999999999</v>
+      </c>
       <c r="C13" s="4">
-        <v>1.1399999999999999</v>
+        <v>6.69</v>
       </c>
       <c r="D13" s="4">
-        <v>5.76</v>
+        <v>7.91</v>
       </c>
       <c r="E13" s="4">
-        <v>6.69</v>
-      </c>
-      <c r="F13" s="4"/>
+        <v>5.78</v>
+      </c>
+      <c r="F13" s="4">
+        <v>31.83</v>
+      </c>
       <c r="G13" s="4">
-        <v>6.53</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4">
-        <v>7.91</v>
-      </c>
-      <c r="J13" s="4">
-        <v>5.78</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4">
-        <v>0.61</v>
-      </c>
-      <c r="M13" s="4">
-        <v>3.24</v>
-      </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4">
-        <v>6.3</v>
-      </c>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4">
-        <v>8.14</v>
-      </c>
-      <c r="U13" s="4">
-        <v>31.83</v>
-      </c>
-      <c r="V13" s="4">
-        <v>16.079999999999998</v>
-      </c>
-      <c r="W13" s="4">
-        <v>100.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+        <v>53.349999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>534</v>
       </c>
       <c r="B14" s="4">
-        <v>0.43</v>
+        <v>16.260000000000002</v>
       </c>
       <c r="C14" s="4">
-        <v>16.260000000000002</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>3.07</v>
+      </c>
+      <c r="D14" s="4">
+        <v>6.94</v>
+      </c>
       <c r="E14" s="4">
-        <v>3.07</v>
+        <v>31.12</v>
       </c>
       <c r="F14" s="4">
-        <v>2.41</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4">
-        <v>6.94</v>
-      </c>
-      <c r="J14" s="4">
-        <v>31.12</v>
-      </c>
-      <c r="K14" s="4">
-        <v>8.35</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4">
-        <v>10.78</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="T14" s="4">
-        <v>0.66</v>
-      </c>
-      <c r="U14" s="4">
         <v>11.49</v>
       </c>
-      <c r="V14" s="4">
-        <v>3.75</v>
-      </c>
-      <c r="W14" s="4">
-        <v>99.999999999999986</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G14" s="4">
+        <v>68.88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>535</v>
       </c>
       <c r="B15" s="4">
-        <v>0.2</v>
+        <v>7.77</v>
       </c>
       <c r="C15" s="4">
-        <v>7.77</v>
+        <v>3.62</v>
       </c>
       <c r="D15" s="4">
-        <v>1.76</v>
+        <v>6.75</v>
       </c>
       <c r="E15" s="4">
-        <v>3.62</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="I15" s="4">
-        <v>6.75</v>
-      </c>
-      <c r="J15" s="4">
         <v>36.81</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4">
-        <v>3.61</v>
-      </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4">
-        <v>3.12</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>1.27</v>
-      </c>
-      <c r="R15" s="4">
-        <v>10.07</v>
-      </c>
-      <c r="S15" s="4">
-        <v>3.39</v>
-      </c>
-      <c r="T15" s="4">
-        <v>10.28</v>
-      </c>
-      <c r="U15" s="4">
+      <c r="F15" s="4">
         <v>1.9</v>
       </c>
-      <c r="V15" s="4">
-        <v>4.43</v>
-      </c>
-      <c r="W15" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G15" s="4">
+        <v>56.85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4">
+        <v>1.51</v>
+      </c>
       <c r="C16" s="4">
-        <v>1.51</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>3.51</v>
+      </c>
+      <c r="D16" s="4">
+        <v>7.91</v>
+      </c>
       <c r="E16" s="4">
-        <v>3.51</v>
+        <v>15.72</v>
       </c>
       <c r="F16" s="4">
-        <v>8.5399999999999991</v>
+        <v>18.48</v>
       </c>
       <c r="G16" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H16" s="4">
-        <v>6.15</v>
-      </c>
-      <c r="I16" s="4">
-        <v>7.91</v>
-      </c>
-      <c r="J16" s="4">
-        <v>15.72</v>
-      </c>
-      <c r="K16" s="4">
-        <v>6.93</v>
-      </c>
-      <c r="L16" s="4">
-        <v>1.34</v>
-      </c>
-      <c r="M16" s="4">
-        <v>8.0299999999999994</v>
-      </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4">
-        <v>0.43</v>
-      </c>
-      <c r="R16" s="4">
-        <v>11.95</v>
-      </c>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4">
-        <v>7.2</v>
-      </c>
-      <c r="U16" s="4">
-        <v>18.48</v>
-      </c>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4">
-        <v>100.00000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+        <v>47.129999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4">
+        <v>10.67</v>
+      </c>
       <c r="C17" s="4">
-        <v>10.67</v>
-      </c>
-      <c r="D17" s="4"/>
+        <v>4.08</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1.42</v>
+      </c>
       <c r="E17" s="4">
-        <v>4.08</v>
+        <v>14.03</v>
       </c>
       <c r="F17" s="4">
-        <v>10.210000000000001</v>
+        <v>49.45</v>
       </c>
       <c r="G17" s="4">
-        <v>1.69</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0.24</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1.42</v>
-      </c>
-      <c r="J17" s="4">
-        <v>14.03</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4">
-        <v>1.58</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4">
-        <v>0.97</v>
-      </c>
-      <c r="U17" s="4">
-        <v>49.45</v>
-      </c>
-      <c r="V17" s="4">
-        <v>5.17</v>
-      </c>
-      <c r="W17" s="4">
-        <v>100.01</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+        <v>79.650000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="4">
+        <v>11.65</v>
+      </c>
       <c r="C18" s="4">
-        <v>11.65</v>
+        <v>19.07</v>
       </c>
       <c r="D18" s="4">
-        <v>3.03</v>
+        <v>11.61</v>
       </c>
       <c r="E18" s="4">
-        <v>19.07</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F18" s="4">
-        <v>8.49</v>
+        <v>5.45</v>
       </c>
       <c r="G18" s="4">
-        <v>1.47</v>
-      </c>
-      <c r="H18" s="4">
-        <v>1.33</v>
-      </c>
-      <c r="I18" s="4">
-        <v>11.61</v>
-      </c>
-      <c r="J18" s="4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="K18" s="4">
-        <v>3.06</v>
-      </c>
-      <c r="L18" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="M18" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="N18" s="4">
-        <v>1.06</v>
-      </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4">
-        <v>5.87</v>
-      </c>
-      <c r="R18" s="4">
-        <v>3.18</v>
-      </c>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="U18" s="4">
-        <v>5.45</v>
-      </c>
-      <c r="V18" s="4">
-        <v>10.1</v>
-      </c>
-      <c r="W18" s="4">
-        <v>99.98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+        <v>56.980000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="4">
+        <v>5.29</v>
+      </c>
       <c r="C19" s="4">
-        <v>5.29</v>
-      </c>
-      <c r="D19" s="4"/>
+        <v>4.22</v>
+      </c>
+      <c r="D19" s="4">
+        <v>6.42</v>
+      </c>
       <c r="E19" s="4">
-        <v>4.22</v>
-      </c>
-      <c r="F19" s="4"/>
+        <v>21.69</v>
+      </c>
+      <c r="F19" s="4">
+        <v>28.59</v>
+      </c>
       <c r="G19" s="4">
-        <v>1.02</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0.74</v>
-      </c>
-      <c r="I19" s="4">
-        <v>6.42</v>
-      </c>
-      <c r="J19" s="4">
-        <v>21.69</v>
-      </c>
-      <c r="K19" s="4">
-        <v>9.93</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="M19" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4">
-        <v>7.94</v>
-      </c>
-      <c r="S19" s="4">
-        <v>8.39</v>
-      </c>
-      <c r="T19" s="4">
-        <v>0.08</v>
-      </c>
-      <c r="U19" s="4">
-        <v>28.59</v>
-      </c>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4">
-        <v>100.01</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+        <v>66.210000000000008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>540</v>
       </c>
       <c r="B20" s="4">
-        <v>1.06</v>
+        <v>5.15</v>
       </c>
       <c r="C20" s="4">
-        <v>5.15</v>
-      </c>
-      <c r="D20" s="4"/>
+        <v>8.57</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1.94</v>
+      </c>
       <c r="E20" s="4">
-        <v>8.57</v>
+        <v>32.909999999999997</v>
       </c>
       <c r="F20" s="4">
-        <v>0.96</v>
+        <v>28.69</v>
       </c>
       <c r="G20" s="4">
-        <v>4.74</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="I20" s="4">
-        <v>1.94</v>
-      </c>
-      <c r="J20" s="4">
-        <v>32.909999999999997</v>
-      </c>
-      <c r="K20" s="4">
-        <v>6.14</v>
-      </c>
-      <c r="L20" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4">
-        <v>2.46</v>
-      </c>
-      <c r="U20" s="4">
-        <v>28.69</v>
-      </c>
-      <c r="V20" s="4">
-        <v>1.77</v>
-      </c>
-      <c r="W20" s="4">
-        <v>100.00999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+        <v>77.259999999999991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="4">
+        <v>4.3899999999999997</v>
+      </c>
       <c r="C21" s="4">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="D21" s="4"/>
+        <v>6.42</v>
+      </c>
+      <c r="D21" s="4">
+        <v>7.41</v>
+      </c>
       <c r="E21" s="4">
-        <v>6.42</v>
+        <v>10.41</v>
       </c>
       <c r="F21" s="4">
-        <v>7.16</v>
+        <v>21.18</v>
       </c>
       <c r="G21" s="4">
-        <v>1.69</v>
-      </c>
-      <c r="H21" s="4">
-        <v>3.65</v>
-      </c>
-      <c r="I21" s="4">
-        <v>7.41</v>
-      </c>
-      <c r="J21" s="4">
-        <v>10.41</v>
-      </c>
-      <c r="K21" s="4">
-        <v>2.29</v>
-      </c>
-      <c r="L21" s="4">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0.74</v>
-      </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4">
-        <v>3.35</v>
-      </c>
-      <c r="S21" s="4">
-        <v>17.18</v>
-      </c>
-      <c r="T21" s="4">
-        <v>5.82</v>
-      </c>
-      <c r="U21" s="4">
-        <v>21.18</v>
-      </c>
-      <c r="V21" s="4">
-        <v>4.25</v>
-      </c>
-      <c r="W21" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+        <v>49.81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>542</v>
       </c>
       <c r="B22" s="4">
-        <v>0.02</v>
+        <v>18.84</v>
       </c>
       <c r="C22" s="4">
-        <v>18.84</v>
+        <v>7.93</v>
       </c>
       <c r="D22" s="4">
-        <v>4.12</v>
+        <v>10.32</v>
       </c>
       <c r="E22" s="4">
-        <v>7.93</v>
-      </c>
-      <c r="F22" s="4"/>
+        <v>18.63</v>
+      </c>
+      <c r="F22" s="4">
+        <v>4.92</v>
+      </c>
       <c r="G22" s="4">
-        <v>6.48</v>
-      </c>
-      <c r="H22" s="4">
-        <v>1.37</v>
-      </c>
-      <c r="I22" s="4">
-        <v>10.32</v>
-      </c>
-      <c r="J22" s="4">
-        <v>18.63</v>
-      </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4">
-        <v>2.11</v>
-      </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4">
-        <v>4.24</v>
-      </c>
-      <c r="R22" s="4">
-        <v>7.43</v>
-      </c>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4">
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="U22" s="4">
-        <v>4.92</v>
-      </c>
-      <c r="V22" s="4">
-        <v>4.83</v>
-      </c>
-      <c r="W22" s="4">
-        <v>100.00999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+        <v>60.64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>583</v>
       </c>
       <c r="B23" s="4">
-        <v>1.5</v>
+        <v>8.92</v>
       </c>
       <c r="C23" s="4">
-        <v>8.92</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="D23" s="4">
-        <v>6.04</v>
+        <v>6.15</v>
       </c>
       <c r="E23" s="4">
-        <v>8.0399999999999991</v>
+        <v>22.08</v>
       </c>
       <c r="F23" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4">
-        <v>6.15</v>
-      </c>
-      <c r="J23" s="4">
-        <v>22.08</v>
-      </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4">
-        <v>2.68</v>
-      </c>
-      <c r="M23" s="4">
-        <v>1.74</v>
-      </c>
-      <c r="N23" s="4">
-        <v>2.85</v>
-      </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4">
-        <v>3.57</v>
-      </c>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4">
-        <v>2.86</v>
-      </c>
-      <c r="U23" s="4">
         <v>27.19</v>
       </c>
-      <c r="V23" s="4">
-        <v>6.18</v>
-      </c>
-      <c r="W23" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G23" s="4">
+        <v>72.38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>584</v>
       </c>
       <c r="B24" s="4">
-        <v>0.87</v>
+        <v>6.42</v>
       </c>
       <c r="C24" s="4">
-        <v>6.42</v>
+        <v>9.67</v>
       </c>
       <c r="D24" s="4">
-        <v>4.07</v>
+        <v>3.89</v>
       </c>
       <c r="E24" s="4">
-        <v>9.67</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4">
-        <v>1.41</v>
-      </c>
-      <c r="I24" s="4">
-        <v>3.89</v>
-      </c>
-      <c r="J24" s="4">
         <v>23.94</v>
       </c>
-      <c r="K24" s="4">
-        <v>17.14</v>
-      </c>
-      <c r="L24" s="4">
-        <v>0.67</v>
-      </c>
-      <c r="M24" s="4">
-        <v>0.54</v>
-      </c>
-      <c r="N24" s="4">
-        <v>0.67</v>
-      </c>
-      <c r="O24" s="4">
-        <v>0.59</v>
-      </c>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4">
-        <v>3.92</v>
-      </c>
-      <c r="R24" s="4">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4">
-        <v>1.92</v>
-      </c>
-      <c r="U24" s="4">
+      <c r="F24" s="4">
         <v>18.57</v>
       </c>
-      <c r="V24" s="4">
-        <v>1.51</v>
-      </c>
-      <c r="W24" s="4">
-        <v>99.990000000000023</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G24" s="4">
+        <v>62.49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>585</v>
       </c>
       <c r="B25" s="4">
-        <v>3.48</v>
+        <v>5.93</v>
       </c>
       <c r="C25" s="4">
-        <v>5.93</v>
+        <v>19.420000000000002</v>
       </c>
       <c r="D25" s="4">
-        <v>3.39</v>
+        <v>7.65</v>
       </c>
       <c r="E25" s="4">
-        <v>19.420000000000002</v>
+        <v>9.82</v>
       </c>
       <c r="F25" s="4">
-        <v>8.23</v>
+        <v>11.31</v>
       </c>
       <c r="G25" s="4">
-        <v>3.19</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4">
-        <v>7.65</v>
-      </c>
-      <c r="J25" s="4">
-        <v>9.82</v>
-      </c>
-      <c r="K25" s="4">
-        <v>1.93</v>
-      </c>
-      <c r="L25" s="4">
-        <v>1.25</v>
-      </c>
-      <c r="M25" s="4">
-        <v>0.49</v>
-      </c>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>2.95</v>
-      </c>
-      <c r="R25" s="4">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="S25" s="4">
-        <v>2.25</v>
-      </c>
-      <c r="T25" s="4">
-        <v>9.02</v>
-      </c>
-      <c r="U25" s="4">
-        <v>11.31</v>
-      </c>
-      <c r="V25" s="4">
-        <v>5.46</v>
-      </c>
-      <c r="W25" s="4">
-        <v>100.01999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+        <v>54.13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>586</v>
       </c>
       <c r="B26" s="4">
-        <v>0.31</v>
+        <v>15.17</v>
       </c>
       <c r="C26" s="4">
-        <v>15.17</v>
+        <v>4.24</v>
       </c>
       <c r="D26" s="4">
-        <v>2.25</v>
+        <v>0.2</v>
       </c>
       <c r="E26" s="4">
-        <v>4.24</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="F26" s="4">
-        <v>2.19</v>
+        <v>24.37</v>
       </c>
       <c r="G26" s="4">
-        <v>0.76</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="J26" s="4">
-        <v>16.920000000000002</v>
-      </c>
-      <c r="K26" s="4">
-        <v>1.08</v>
-      </c>
-      <c r="L26" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="M26" s="4">
-        <v>0.97</v>
-      </c>
-      <c r="N26" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="O26" s="4">
-        <v>1.03</v>
-      </c>
-      <c r="P26" s="4">
-        <v>2.13</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>0.84</v>
-      </c>
-      <c r="R26" s="4">
-        <v>6.85</v>
-      </c>
-      <c r="S26" s="4">
-        <v>5.08</v>
-      </c>
-      <c r="T26" s="4">
-        <v>6.92</v>
-      </c>
-      <c r="U26" s="4">
-        <v>24.37</v>
-      </c>
-      <c r="V26" s="4">
-        <v>5.61</v>
-      </c>
-      <c r="W26" s="4">
-        <v>100.01</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+        <v>60.900000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" s="4">
+        <v>28.46</v>
+      </c>
       <c r="C27" s="4">
-        <v>28.46</v>
-      </c>
-      <c r="D27" s="4"/>
+        <v>11.06</v>
+      </c>
+      <c r="D27" s="4">
+        <v>4.32</v>
+      </c>
       <c r="E27" s="4">
-        <v>11.06</v>
-      </c>
-      <c r="F27" s="4"/>
+        <v>9.36</v>
+      </c>
+      <c r="F27" s="4">
+        <v>35.54</v>
+      </c>
       <c r="G27" s="4">
-        <v>1.27</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4">
-        <v>4.32</v>
-      </c>
-      <c r="J27" s="4">
-        <v>9.36</v>
-      </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4">
-        <v>3.6</v>
-      </c>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4">
-        <v>2.72</v>
-      </c>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4">
-        <v>35.54</v>
-      </c>
-      <c r="V27" s="4">
-        <v>3.68</v>
-      </c>
-      <c r="W27" s="4">
-        <v>100.01000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+        <v>88.740000000000009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="4">
-        <v>9.5400000000000009</v>
+        <v>228.24999999999997</v>
       </c>
       <c r="C28" s="4">
-        <v>228.24999999999997</v>
+        <v>190.47999999999996</v>
       </c>
       <c r="D28" s="4">
-        <v>63.709999999999994</v>
+        <v>160.12999999999997</v>
       </c>
       <c r="E28" s="4">
-        <v>190.47999999999996</v>
+        <v>412.16</v>
       </c>
       <c r="F28" s="4">
-        <v>90.809999999999988</v>
+        <v>460.77</v>
       </c>
       <c r="G28" s="4">
-        <v>56.069999999999993</v>
-      </c>
-      <c r="H28" s="4">
-        <v>41.629999999999995</v>
-      </c>
-      <c r="I28" s="4">
-        <v>160.12999999999997</v>
-      </c>
-      <c r="J28" s="4">
-        <v>412.16</v>
-      </c>
-      <c r="K28" s="4">
-        <v>87.250000000000014</v>
-      </c>
-      <c r="L28" s="4">
-        <v>25.98</v>
-      </c>
-      <c r="M28" s="4">
-        <v>52.740000000000009</v>
-      </c>
-      <c r="N28" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="O28" s="4">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="P28" s="4">
-        <v>22.339999999999996</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>30.07</v>
-      </c>
-      <c r="R28" s="4">
-        <v>92.379999999999967</v>
-      </c>
-      <c r="S28" s="4">
-        <v>60.199999999999996</v>
-      </c>
-      <c r="T28" s="4">
-        <v>96.06</v>
-      </c>
-      <c r="U28" s="4">
-        <v>460.77</v>
-      </c>
-      <c r="V28" s="4">
-        <v>106.86999999999999</v>
-      </c>
-      <c r="W28" s="4">
-        <v>2300.0100000000002</v>
+        <v>1451.7900000000004</v>
       </c>
     </row>
   </sheetData>
@@ -72434,9 +68428,909 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B2">
+        <v>1998</v>
+      </c>
+      <c r="C2">
+        <v>92633.672884453699</v>
+      </c>
+      <c r="D2">
+        <v>21.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B3">
+        <v>1997</v>
+      </c>
+      <c r="C3">
+        <v>117320.16445736001</v>
+      </c>
+      <c r="D3">
+        <v>19.010000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B4">
+        <v>1997</v>
+      </c>
+      <c r="C4">
+        <v>114845.26222949001</v>
+      </c>
+      <c r="D4">
+        <v>18.61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>614</v>
+      </c>
+      <c r="B5">
+        <v>1996</v>
+      </c>
+      <c r="C5">
+        <v>38105.6751882635</v>
+      </c>
+      <c r="D5">
+        <v>18.309999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>605</v>
+      </c>
+      <c r="B6">
+        <v>1998</v>
+      </c>
+      <c r="C6">
+        <v>77557.323753312594</v>
+      </c>
+      <c r="D6">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>605</v>
+      </c>
+      <c r="B7">
+        <v>1996</v>
+      </c>
+      <c r="C7">
+        <v>35407.145043538803</v>
+      </c>
+      <c r="D7">
+        <v>17.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>609</v>
+      </c>
+      <c r="B8">
+        <v>1996</v>
+      </c>
+      <c r="C8">
+        <v>25601.3451128296</v>
+      </c>
+      <c r="D8">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>609</v>
+      </c>
+      <c r="B9">
+        <v>1998</v>
+      </c>
+      <c r="C9">
+        <v>45000.649889106302</v>
+      </c>
+      <c r="D9">
+        <v>10.210000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>607</v>
+      </c>
+      <c r="B10">
+        <v>1998</v>
+      </c>
+      <c r="C10">
+        <v>44835.768938699701</v>
+      </c>
+      <c r="D10">
+        <v>10.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>607</v>
+      </c>
+      <c r="B11">
+        <v>1996</v>
+      </c>
+      <c r="C11">
+        <v>20148.8201247978</v>
+      </c>
+      <c r="D11">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>609</v>
+      </c>
+      <c r="B12">
+        <v>1997</v>
+      </c>
+      <c r="C12">
+        <v>57401.843156715302</v>
+      </c>
+      <c r="D12">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>604</v>
+      </c>
+      <c r="B13">
+        <v>1996</v>
+      </c>
+      <c r="C13">
+        <v>17372.760018856199</v>
+      </c>
+      <c r="D13">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>604</v>
+      </c>
+      <c r="B14">
+        <v>1997</v>
+      </c>
+      <c r="C14">
+        <v>45263.382507877497</v>
+      </c>
+      <c r="D14">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>607</v>
+      </c>
+      <c r="B15">
+        <v>1997</v>
+      </c>
+      <c r="C15">
+        <v>41941.187340787801</v>
+      </c>
+      <c r="D15">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>617</v>
+      </c>
+      <c r="B16">
+        <v>1998</v>
+      </c>
+      <c r="C16">
+        <v>22623.534978244501</v>
+      </c>
+      <c r="D16">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>619</v>
+      </c>
+      <c r="B17">
+        <v>1997</v>
+      </c>
+      <c r="C17">
+        <v>31298.060032586902</v>
+      </c>
+      <c r="D17">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>611</v>
+      </c>
+      <c r="B18">
+        <v>1998</v>
+      </c>
+      <c r="C18">
+        <v>20667.6098809293</v>
+      </c>
+      <c r="D18">
+        <v>4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>611</v>
+      </c>
+      <c r="B19">
+        <v>1996</v>
+      </c>
+      <c r="C19">
+        <v>9738.0999210208593</v>
+      </c>
+      <c r="D19">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>613</v>
+      </c>
+      <c r="B20">
+        <v>1998</v>
+      </c>
+      <c r="C20">
+        <v>20398.229949959099</v>
+      </c>
+      <c r="D20">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>618</v>
+      </c>
+      <c r="B21">
+        <v>1998</v>
+      </c>
+      <c r="C21">
+        <v>20402.120088276701</v>
+      </c>
+      <c r="D21">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>617</v>
+      </c>
+      <c r="B22">
+        <v>1996</v>
+      </c>
+      <c r="C22">
+        <v>9273.6800506484506</v>
+      </c>
+      <c r="D22">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>613</v>
+      </c>
+      <c r="B23">
+        <v>1997</v>
+      </c>
+      <c r="C23">
+        <v>27163.684895810999</v>
+      </c>
+      <c r="D23">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>617</v>
+      </c>
+      <c r="B24">
+        <v>1997</v>
+      </c>
+      <c r="C24">
+        <v>27074.094883342001</v>
+      </c>
+      <c r="D24">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>618</v>
+      </c>
+      <c r="B25">
+        <v>1996</v>
+      </c>
+      <c r="C25">
+        <v>9123.3801340606806</v>
+      </c>
+      <c r="D25">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>611</v>
+      </c>
+      <c r="B26">
+        <v>1997</v>
+      </c>
+      <c r="C26">
+        <v>26404.9189569915</v>
+      </c>
+      <c r="D26">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>604</v>
+      </c>
+      <c r="B27">
+        <v>1998</v>
+      </c>
+      <c r="C27">
+        <v>18722.180002828201</v>
+      </c>
+      <c r="D27">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>621</v>
+      </c>
+      <c r="B28">
+        <v>1997</v>
+      </c>
+      <c r="C28">
+        <v>25192.5374553781</v>
+      </c>
+      <c r="D28">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>606</v>
+      </c>
+      <c r="B29">
+        <v>1998</v>
+      </c>
+      <c r="C29">
+        <v>16083.675019309199</v>
+      </c>
+      <c r="D29">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>619</v>
+      </c>
+      <c r="B30">
+        <v>1996</v>
+      </c>
+      <c r="C30">
+        <v>7372.6801156860602</v>
+      </c>
+      <c r="D30">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>613</v>
+      </c>
+      <c r="B31">
+        <v>1996</v>
+      </c>
+      <c r="C31">
+        <v>6933.22507522255</v>
+      </c>
+      <c r="D31">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>618</v>
+      </c>
+      <c r="B32">
+        <v>1997</v>
+      </c>
+      <c r="C32">
+        <v>20454.404859158101</v>
+      </c>
+      <c r="D32">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>606</v>
+      </c>
+      <c r="B33">
+        <v>1996</v>
+      </c>
+      <c r="C33">
+        <v>6306.7002086028497</v>
+      </c>
+      <c r="D33">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>608</v>
+      </c>
+      <c r="B34">
+        <v>1997</v>
+      </c>
+      <c r="C34">
+        <v>18380.823994230101</v>
+      </c>
+      <c r="D34">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>619</v>
+      </c>
+      <c r="B35">
+        <v>1998</v>
+      </c>
+      <c r="C35">
+        <v>11525.549952507001</v>
+      </c>
+      <c r="D35">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>610</v>
+      </c>
+      <c r="B36">
+        <v>1997</v>
+      </c>
+      <c r="C36">
+        <v>14349.2775107785</v>
+      </c>
+      <c r="D36">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>610</v>
+      </c>
+      <c r="B37">
+        <v>1996</v>
+      </c>
+      <c r="C37">
+        <v>4687.8999719619796</v>
+      </c>
+      <c r="D37">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>612</v>
+      </c>
+      <c r="B38">
+        <v>1997</v>
+      </c>
+      <c r="C38">
+        <v>13437.2925646816</v>
+      </c>
+      <c r="D38">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>608</v>
+      </c>
+      <c r="B39">
+        <v>1998</v>
+      </c>
+      <c r="C39">
+        <v>9147.1149874152998</v>
+      </c>
+      <c r="D39">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>608</v>
+      </c>
+      <c r="B40">
+        <v>1996</v>
+      </c>
+      <c r="C40">
+        <v>4164.7199920821204</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>606</v>
+      </c>
+      <c r="B41">
+        <v>1997</v>
+      </c>
+      <c r="C41">
+        <v>11434.480060322299</v>
+      </c>
+      <c r="D41">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>616</v>
+      </c>
+      <c r="B42">
+        <v>1998</v>
+      </c>
+      <c r="C42">
+        <v>8028.5999672242997</v>
+      </c>
+      <c r="D42">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>615</v>
+      </c>
+      <c r="B43">
+        <v>1998</v>
+      </c>
+      <c r="C43">
+        <v>6843.7999499246498</v>
+      </c>
+      <c r="D43">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>612</v>
+      </c>
+      <c r="B44">
+        <v>1996</v>
+      </c>
+      <c r="C44">
+        <v>3115.7600236082098</v>
+      </c>
+      <c r="D44">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>616</v>
+      </c>
+      <c r="B45">
+        <v>1996</v>
+      </c>
+      <c r="C45">
+        <v>2976.19998985231</v>
+      </c>
+      <c r="D45">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>624</v>
+      </c>
+      <c r="B46">
+        <v>1998</v>
+      </c>
+      <c r="C46">
+        <v>6302.4999961853</v>
+      </c>
+      <c r="D46">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>621</v>
+      </c>
+      <c r="B47">
+        <v>1996</v>
+      </c>
+      <c r="C47">
+        <v>2952.3999825716</v>
+      </c>
+      <c r="D47">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>615</v>
+      </c>
+      <c r="B48">
+        <v>1997</v>
+      </c>
+      <c r="C48">
+        <v>7946.4149570653599</v>
+      </c>
+      <c r="D48">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>616</v>
+      </c>
+      <c r="B49">
+        <v>1997</v>
+      </c>
+      <c r="C49">
+        <v>6978.4000299200397</v>
+      </c>
+      <c r="D49">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>620</v>
+      </c>
+      <c r="B50">
+        <v>1996</v>
+      </c>
+      <c r="C50">
+        <v>2306.13999347448</v>
+      </c>
+      <c r="D50">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>620</v>
+      </c>
+      <c r="B51">
+        <v>1997</v>
+      </c>
+      <c r="C51">
+        <v>6474.5225099326699</v>
+      </c>
+      <c r="D51">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>610</v>
+      </c>
+      <c r="B52">
+        <v>1998</v>
+      </c>
+      <c r="C52">
+        <v>4544.8999891281101</v>
+      </c>
+      <c r="D52">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>621</v>
+      </c>
+      <c r="B53">
+        <v>1998</v>
+      </c>
+      <c r="C53">
+        <v>4516.0850702626303</v>
+      </c>
+      <c r="D53">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>623</v>
+      </c>
+      <c r="B54">
+        <v>1998</v>
+      </c>
+      <c r="C54">
+        <v>3976.75</v>
+      </c>
+      <c r="D54">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>620</v>
+      </c>
+      <c r="B55">
+        <v>1998</v>
+      </c>
+      <c r="C55">
+        <v>2691.70000874996</v>
+      </c>
+      <c r="D55">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>623</v>
+      </c>
+      <c r="B56">
+        <v>1996</v>
+      </c>
+      <c r="C56">
+        <v>1058.4000191688499</v>
+      </c>
+      <c r="D56">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>612</v>
+      </c>
+      <c r="B57">
+        <v>1998</v>
+      </c>
+      <c r="C57">
+        <v>2256.9999804794802</v>
+      </c>
+      <c r="D57">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>615</v>
+      </c>
+      <c r="B58">
+        <v>1996</v>
+      </c>
+      <c r="C58">
+        <v>979.94001085370803</v>
+      </c>
+      <c r="D58">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>622</v>
+      </c>
+      <c r="B59">
+        <v>1998</v>
+      </c>
+      <c r="C59">
+        <v>1865.09999084473</v>
+      </c>
+      <c r="D59">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>624</v>
+      </c>
+      <c r="B60">
+        <v>1997</v>
+      </c>
+      <c r="C60">
+        <v>1816.59999465942</v>
+      </c>
+      <c r="D60">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>622</v>
+      </c>
+      <c r="B61">
+        <v>1996</v>
+      </c>
+      <c r="C61">
+        <v>459.00000572204601</v>
+      </c>
+      <c r="D61">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>622</v>
+      </c>
+      <c r="B62">
+        <v>1997</v>
+      </c>
+      <c r="C62">
+        <v>1207.8499994278</v>
+      </c>
+      <c r="D62">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>623</v>
+      </c>
+      <c r="B63">
+        <v>1997</v>
+      </c>
+      <c r="C63">
+        <v>699.99999618530296</v>
+      </c>
+      <c r="D63">
+        <v>0.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:D25"/>
     </sheetView>
   </sheetViews>
@@ -72849,901 +69743,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D63"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>602</v>
-      </c>
-      <c r="B1" t="s">
-        <v>632</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>614</v>
-      </c>
-      <c r="B2">
-        <v>1998</v>
-      </c>
-      <c r="C2">
-        <v>92633.672884453699</v>
-      </c>
-      <c r="D2">
-        <v>21.02</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>605</v>
-      </c>
-      <c r="B3">
-        <v>1997</v>
-      </c>
-      <c r="C3">
-        <v>117320.16445736001</v>
-      </c>
-      <c r="D3">
-        <v>19.010000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>614</v>
-      </c>
-      <c r="B4">
-        <v>1997</v>
-      </c>
-      <c r="C4">
-        <v>114845.26222949001</v>
-      </c>
-      <c r="D4">
-        <v>18.61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>614</v>
-      </c>
-      <c r="B5">
-        <v>1996</v>
-      </c>
-      <c r="C5">
-        <v>38105.6751882635</v>
-      </c>
-      <c r="D5">
-        <v>18.309999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>605</v>
-      </c>
-      <c r="B6">
-        <v>1998</v>
-      </c>
-      <c r="C6">
-        <v>77557.323753312594</v>
-      </c>
-      <c r="D6">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>605</v>
-      </c>
-      <c r="B7">
-        <v>1996</v>
-      </c>
-      <c r="C7">
-        <v>35407.145043538803</v>
-      </c>
-      <c r="D7">
-        <v>17.02</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>609</v>
-      </c>
-      <c r="B8">
-        <v>1996</v>
-      </c>
-      <c r="C8">
-        <v>25601.3451128296</v>
-      </c>
-      <c r="D8">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>609</v>
-      </c>
-      <c r="B9">
-        <v>1998</v>
-      </c>
-      <c r="C9">
-        <v>45000.649889106302</v>
-      </c>
-      <c r="D9">
-        <v>10.210000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>607</v>
-      </c>
-      <c r="B10">
-        <v>1998</v>
-      </c>
-      <c r="C10">
-        <v>44835.768938699701</v>
-      </c>
-      <c r="D10">
-        <v>10.18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>607</v>
-      </c>
-      <c r="B11">
-        <v>1996</v>
-      </c>
-      <c r="C11">
-        <v>20148.8201247978</v>
-      </c>
-      <c r="D11">
-        <v>9.68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>609</v>
-      </c>
-      <c r="B12">
-        <v>1997</v>
-      </c>
-      <c r="C12">
-        <v>57401.843156715302</v>
-      </c>
-      <c r="D12">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>604</v>
-      </c>
-      <c r="B13">
-        <v>1996</v>
-      </c>
-      <c r="C13">
-        <v>17372.760018856199</v>
-      </c>
-      <c r="D13">
-        <v>8.35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>604</v>
-      </c>
-      <c r="B14">
-        <v>1997</v>
-      </c>
-      <c r="C14">
-        <v>45263.382507877497</v>
-      </c>
-      <c r="D14">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>607</v>
-      </c>
-      <c r="B15">
-        <v>1997</v>
-      </c>
-      <c r="C15">
-        <v>41941.187340787801</v>
-      </c>
-      <c r="D15">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>617</v>
-      </c>
-      <c r="B16">
-        <v>1998</v>
-      </c>
-      <c r="C16">
-        <v>22623.534978244501</v>
-      </c>
-      <c r="D16">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>619</v>
-      </c>
-      <c r="B17">
-        <v>1997</v>
-      </c>
-      <c r="C17">
-        <v>31298.060032586902</v>
-      </c>
-      <c r="D17">
-        <v>5.07</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>611</v>
-      </c>
-      <c r="B18">
-        <v>1998</v>
-      </c>
-      <c r="C18">
-        <v>20667.6098809293</v>
-      </c>
-      <c r="D18">
-        <v>4.6900000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>611</v>
-      </c>
-      <c r="B19">
-        <v>1996</v>
-      </c>
-      <c r="C19">
-        <v>9738.0999210208593</v>
-      </c>
-      <c r="D19">
-        <v>4.68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>613</v>
-      </c>
-      <c r="B20">
-        <v>1998</v>
-      </c>
-      <c r="C20">
-        <v>20398.229949959099</v>
-      </c>
-      <c r="D20">
-        <v>4.63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>618</v>
-      </c>
-      <c r="B21">
-        <v>1998</v>
-      </c>
-      <c r="C21">
-        <v>20402.120088276701</v>
-      </c>
-      <c r="D21">
-        <v>4.63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>617</v>
-      </c>
-      <c r="B22">
-        <v>1996</v>
-      </c>
-      <c r="C22">
-        <v>9273.6800506484506</v>
-      </c>
-      <c r="D22">
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>613</v>
-      </c>
-      <c r="B23">
-        <v>1997</v>
-      </c>
-      <c r="C23">
-        <v>27163.684895810999</v>
-      </c>
-      <c r="D23">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>617</v>
-      </c>
-      <c r="B24">
-        <v>1997</v>
-      </c>
-      <c r="C24">
-        <v>27074.094883342001</v>
-      </c>
-      <c r="D24">
-        <v>4.3899999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>618</v>
-      </c>
-      <c r="B25">
-        <v>1996</v>
-      </c>
-      <c r="C25">
-        <v>9123.3801340606806</v>
-      </c>
-      <c r="D25">
-        <v>4.38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>611</v>
-      </c>
-      <c r="B26">
-        <v>1997</v>
-      </c>
-      <c r="C26">
-        <v>26404.9189569915</v>
-      </c>
-      <c r="D26">
-        <v>4.28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>604</v>
-      </c>
-      <c r="B27">
-        <v>1998</v>
-      </c>
-      <c r="C27">
-        <v>18722.180002828201</v>
-      </c>
-      <c r="D27">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>621</v>
-      </c>
-      <c r="B28">
-        <v>1997</v>
-      </c>
-      <c r="C28">
-        <v>25192.5374553781</v>
-      </c>
-      <c r="D28">
-        <v>4.08</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>606</v>
-      </c>
-      <c r="B29">
-        <v>1998</v>
-      </c>
-      <c r="C29">
-        <v>16083.675019309199</v>
-      </c>
-      <c r="D29">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>619</v>
-      </c>
-      <c r="B30">
-        <v>1996</v>
-      </c>
-      <c r="C30">
-        <v>7372.6801156860602</v>
-      </c>
-      <c r="D30">
-        <v>3.54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>613</v>
-      </c>
-      <c r="B31">
-        <v>1996</v>
-      </c>
-      <c r="C31">
-        <v>6933.22507522255</v>
-      </c>
-      <c r="D31">
-        <v>3.33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>618</v>
-      </c>
-      <c r="B32">
-        <v>1997</v>
-      </c>
-      <c r="C32">
-        <v>20454.404859158101</v>
-      </c>
-      <c r="D32">
-        <v>3.31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>606</v>
-      </c>
-      <c r="B33">
-        <v>1996</v>
-      </c>
-      <c r="C33">
-        <v>6306.7002086028497</v>
-      </c>
-      <c r="D33">
-        <v>3.03</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>608</v>
-      </c>
-      <c r="B34">
-        <v>1997</v>
-      </c>
-      <c r="C34">
-        <v>18380.823994230101</v>
-      </c>
-      <c r="D34">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>619</v>
-      </c>
-      <c r="B35">
-        <v>1998</v>
-      </c>
-      <c r="C35">
-        <v>11525.549952507001</v>
-      </c>
-      <c r="D35">
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>610</v>
-      </c>
-      <c r="B36">
-        <v>1997</v>
-      </c>
-      <c r="C36">
-        <v>14349.2775107785</v>
-      </c>
-      <c r="D36">
-        <v>2.33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>610</v>
-      </c>
-      <c r="B37">
-        <v>1996</v>
-      </c>
-      <c r="C37">
-        <v>4687.8999719619796</v>
-      </c>
-      <c r="D37">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>612</v>
-      </c>
-      <c r="B38">
-        <v>1997</v>
-      </c>
-      <c r="C38">
-        <v>13437.2925646816</v>
-      </c>
-      <c r="D38">
-        <v>2.1800000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>608</v>
-      </c>
-      <c r="B39">
-        <v>1998</v>
-      </c>
-      <c r="C39">
-        <v>9147.1149874152998</v>
-      </c>
-      <c r="D39">
-        <v>2.08</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>608</v>
-      </c>
-      <c r="B40">
-        <v>1996</v>
-      </c>
-      <c r="C40">
-        <v>4164.7199920821204</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>606</v>
-      </c>
-      <c r="B41">
-        <v>1997</v>
-      </c>
-      <c r="C41">
-        <v>11434.480060322299</v>
-      </c>
-      <c r="D41">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>616</v>
-      </c>
-      <c r="B42">
-        <v>1998</v>
-      </c>
-      <c r="C42">
-        <v>8028.5999672242997</v>
-      </c>
-      <c r="D42">
-        <v>1.82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>615</v>
-      </c>
-      <c r="B43">
-        <v>1998</v>
-      </c>
-      <c r="C43">
-        <v>6843.7999499246498</v>
-      </c>
-      <c r="D43">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>612</v>
-      </c>
-      <c r="B44">
-        <v>1996</v>
-      </c>
-      <c r="C44">
-        <v>3115.7600236082098</v>
-      </c>
-      <c r="D44">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>616</v>
-      </c>
-      <c r="B45">
-        <v>1996</v>
-      </c>
-      <c r="C45">
-        <v>2976.19998985231</v>
-      </c>
-      <c r="D45">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>624</v>
-      </c>
-      <c r="B46">
-        <v>1998</v>
-      </c>
-      <c r="C46">
-        <v>6302.4999961853</v>
-      </c>
-      <c r="D46">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>621</v>
-      </c>
-      <c r="B47">
-        <v>1996</v>
-      </c>
-      <c r="C47">
-        <v>2952.3999825716</v>
-      </c>
-      <c r="D47">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>615</v>
-      </c>
-      <c r="B48">
-        <v>1997</v>
-      </c>
-      <c r="C48">
-        <v>7946.4149570653599</v>
-      </c>
-      <c r="D48">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>616</v>
-      </c>
-      <c r="B49">
-        <v>1997</v>
-      </c>
-      <c r="C49">
-        <v>6978.4000299200397</v>
-      </c>
-      <c r="D49">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>620</v>
-      </c>
-      <c r="B50">
-        <v>1996</v>
-      </c>
-      <c r="C50">
-        <v>2306.13999347448</v>
-      </c>
-      <c r="D50">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>620</v>
-      </c>
-      <c r="B51">
-        <v>1997</v>
-      </c>
-      <c r="C51">
-        <v>6474.5225099326699</v>
-      </c>
-      <c r="D51">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>610</v>
-      </c>
-      <c r="B52">
-        <v>1998</v>
-      </c>
-      <c r="C52">
-        <v>4544.8999891281101</v>
-      </c>
-      <c r="D52">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>621</v>
-      </c>
-      <c r="B53">
-        <v>1998</v>
-      </c>
-      <c r="C53">
-        <v>4516.0850702626303</v>
-      </c>
-      <c r="D53">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>623</v>
-      </c>
-      <c r="B54">
-        <v>1998</v>
-      </c>
-      <c r="C54">
-        <v>3976.75</v>
-      </c>
-      <c r="D54">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>620</v>
-      </c>
-      <c r="B55">
-        <v>1998</v>
-      </c>
-      <c r="C55">
-        <v>2691.70000874996</v>
-      </c>
-      <c r="D55">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>623</v>
-      </c>
-      <c r="B56">
-        <v>1996</v>
-      </c>
-      <c r="C56">
-        <v>1058.4000191688499</v>
-      </c>
-      <c r="D56">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>612</v>
-      </c>
-      <c r="B57">
-        <v>1998</v>
-      </c>
-      <c r="C57">
-        <v>2256.9999804794802</v>
-      </c>
-      <c r="D57">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>615</v>
-      </c>
-      <c r="B58">
-        <v>1996</v>
-      </c>
-      <c r="C58">
-        <v>979.94001085370803</v>
-      </c>
-      <c r="D58">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>622</v>
-      </c>
-      <c r="B59">
-        <v>1998</v>
-      </c>
-      <c r="C59">
-        <v>1865.09999084473</v>
-      </c>
-      <c r="D59">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>624</v>
-      </c>
-      <c r="B60">
-        <v>1997</v>
-      </c>
-      <c r="C60">
-        <v>1816.59999465942</v>
-      </c>
-      <c r="D60">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>622</v>
-      </c>
-      <c r="B61">
-        <v>1996</v>
-      </c>
-      <c r="C61">
-        <v>459.00000572204601</v>
-      </c>
-      <c r="D61">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>622</v>
-      </c>
-      <c r="B62">
-        <v>1997</v>
-      </c>
-      <c r="C62">
-        <v>1207.8499994278</v>
-      </c>
-      <c r="D62">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>623</v>
-      </c>
-      <c r="B63">
-        <v>1997</v>
-      </c>
-      <c r="C63">
-        <v>699.99999618530296</v>
-      </c>
-      <c r="D63">
-        <v>0.11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>